--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -531,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H2">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="I2">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J2">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N2">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O2">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P2">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q2">
-        <v>0.5074192858175646</v>
+        <v>0.5815941682088889</v>
       </c>
       <c r="R2">
-        <v>0.5074192858175646</v>
+        <v>5.234347513879999</v>
       </c>
       <c r="S2">
-        <v>0.02897250440296474</v>
+        <v>0.02974149799015625</v>
       </c>
       <c r="T2">
-        <v>0.02897250440296474</v>
+        <v>0.02974149799015624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H3">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="I3">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J3">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N3">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P3">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q3">
-        <v>8.606460504325074</v>
+        <v>8.736749988695111</v>
       </c>
       <c r="R3">
-        <v>8.606460504325074</v>
+        <v>78.63074989825598</v>
       </c>
       <c r="S3">
-        <v>0.4914096129668018</v>
+        <v>0.4467789507406926</v>
       </c>
       <c r="T3">
-        <v>0.4914096129668018</v>
+        <v>0.4467789507406926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H4">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="I4">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J4">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N4">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O4">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P4">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q4">
-        <v>0.8698474048878982</v>
+        <v>0.9168955864453334</v>
       </c>
       <c r="R4">
-        <v>0.8698474048878982</v>
+        <v>8.252060278008001</v>
       </c>
       <c r="S4">
-        <v>0.04966633802145822</v>
+        <v>0.04688810468204801</v>
       </c>
       <c r="T4">
-        <v>0.04966633802145822</v>
+        <v>0.046888104682048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H5">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="I5">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="J5">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N5">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O5">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P5">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q5">
-        <v>4.285858183339324</v>
+        <v>4.421494613755556</v>
       </c>
       <c r="R5">
-        <v>4.285858183339324</v>
+        <v>39.79345152379999</v>
       </c>
       <c r="S5">
-        <v>0.2447129002738089</v>
+        <v>0.226105900568911</v>
       </c>
       <c r="T5">
-        <v>0.2447129002738089</v>
+        <v>0.226105900568911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0339312761233947</v>
+        <v>0.05051366666666667</v>
       </c>
       <c r="H6">
-        <v>0.0339312761233947</v>
+        <v>0.151541</v>
       </c>
       <c r="I6">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="J6">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N6">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O6">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P6">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q6">
-        <v>0.1153634250823566</v>
+        <v>0.1943670759261111</v>
       </c>
       <c r="R6">
-        <v>0.1153634250823566</v>
+        <v>1.749303683335</v>
       </c>
       <c r="S6">
-        <v>0.006586993113110349</v>
+        <v>0.00993952194502185</v>
       </c>
       <c r="T6">
-        <v>0.006586993113110349</v>
+        <v>0.009939521945021849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0339312761233947</v>
+        <v>0.05051366666666667</v>
       </c>
       <c r="H7">
-        <v>0.0339312761233947</v>
+        <v>0.151541</v>
       </c>
       <c r="I7">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="J7">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N7">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P7">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q7">
-        <v>1.956706789366969</v>
+        <v>2.919796382466889</v>
       </c>
       <c r="R7">
-        <v>1.956706789366969</v>
+        <v>26.278167442202</v>
       </c>
       <c r="S7">
-        <v>0.1117235738860502</v>
+        <v>0.149312223174863</v>
       </c>
       <c r="T7">
-        <v>0.1117235738860502</v>
+        <v>0.149312223174863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0339312761233947</v>
+        <v>0.05051366666666667</v>
       </c>
       <c r="H8">
-        <v>0.0339312761233947</v>
+        <v>0.151541</v>
       </c>
       <c r="I8">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="J8">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N8">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O8">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P8">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q8">
-        <v>0.1977626368008139</v>
+        <v>0.3064238326456667</v>
       </c>
       <c r="R8">
-        <v>0.1977626368008139</v>
+        <v>2.757814493811</v>
       </c>
       <c r="S8">
-        <v>0.01129180349584411</v>
+        <v>0.01566986792669112</v>
       </c>
       <c r="T8">
-        <v>0.01129180349584411</v>
+        <v>0.01566986792669112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0339312761233947</v>
+        <v>0.05051366666666667</v>
       </c>
       <c r="H9">
-        <v>0.0339312761233947</v>
+        <v>0.151541</v>
       </c>
       <c r="I9">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="J9">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N9">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O9">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P9">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q9">
-        <v>0.9744037983314591</v>
+        <v>1.477650613219445</v>
       </c>
       <c r="R9">
-        <v>0.9744037983314591</v>
+        <v>13.298855518975</v>
       </c>
       <c r="S9">
-        <v>0.05563627383996159</v>
+        <v>0.07556393297161604</v>
       </c>
       <c r="T9">
-        <v>0.05563627383996159</v>
+        <v>0.07556393297161602</v>
       </c>
     </row>
   </sheetData>
